--- a/data/trans_orig/P1405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC952DC-AA29-43E6-AD11-8E685B35FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{582AC612-66B6-41AD-907A-D22DD1AC666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BA346704-E561-48B9-9453-6EC4D262E57C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8318CC8A-D8A0-4C65-9CF6-E3C2806E355B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="267">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>Si</t>
   </si>
   <si>
-    <t>1,19%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -100,7 +100,7 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,26%</t>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,55%</t>
@@ -115,7 +115,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,81%</t>
+    <t>98,92%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,7 +124,7 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,74%</t>
+    <t>97,97%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -157,640 +157,646 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,24%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
     <t>0,64%</t>
   </si>
   <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
   </si>
   <si>
     <t>99,65%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
   </si>
   <si>
     <t>99,71%</t>
@@ -1244,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F313FB66-D16A-4405-92D3-2669333C54F5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D6FB0-8CAA-48D9-AF39-CDCDB3EAAEA9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1837,7 +1843,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1846,7 +1852,7 @@
         <v>4530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>57</v>
@@ -1885,7 +1891,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1897,7 +1903,7 @@
         <v>705044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>62</v>
@@ -2040,10 +2046,10 @@
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2070,10 +2076,10 @@
         <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2094,13 @@
         <v>609302</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>527</v>
@@ -2103,7 +2109,7 @@
         <v>601594</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>80</v>
@@ -2124,7 +2130,7 @@
         <v>83</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2186,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2198,7 +2204,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2213,7 +2219,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2228,7 +2234,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2249,13 @@
         <v>4292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2258,13 +2264,13 @@
         <v>11030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2273,13 +2279,13 @@
         <v>15322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,13 +2300,13 @@
         <v>425137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="7">
         <v>396</v>
@@ -2309,13 +2315,13 @@
         <v>436770</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>785</v>
@@ -2324,13 +2330,13 @@
         <v>861907</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,7 +2392,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2404,7 +2410,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2419,7 +2425,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2434,7 +2440,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,13 +2455,13 @@
         <v>10431</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2464,13 +2470,13 @@
         <v>21407</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2479,13 +2485,13 @@
         <v>31838</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2500,13 +2506,13 @@
         <v>549206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H26" s="7">
         <v>674</v>
@@ -2515,13 +2521,13 @@
         <v>720385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>1170</v>
@@ -2530,13 +2536,13 @@
         <v>1269591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,7 +2616,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2625,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2640,7 +2646,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,10 +2661,10 @@
         <v>28765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>43</v>
@@ -2670,13 +2676,13 @@
         <v>62730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -2685,13 +2691,13 @@
         <v>91495</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2712,13 @@
         <v>3398014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="H30" s="7">
         <v>3239</v>
@@ -2721,13 +2727,13 @@
         <v>3491186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="M30" s="7">
         <v>6423</v>
@@ -2736,13 +2742,13 @@
         <v>6889199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,7 +2804,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2820,7 +2826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F975133A-6621-45E9-9524-4741B1A02887}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08EDABF-C902-45C8-9C0B-CAC5C5523037}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2837,7 +2843,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2950,7 +2956,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2965,7 +2971,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2980,7 +2986,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>2359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3010,13 +3016,13 @@
         <v>3026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3025,13 +3031,13 @@
         <v>5385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>58</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,10 +3052,10 @@
         <v>417104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3061,13 +3067,13 @@
         <v>392729</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3076,13 +3082,13 @@
         <v>809833</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3171,7 +3177,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3186,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,13 +3207,13 @@
         <v>2981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3216,13 +3222,13 @@
         <v>3807</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -3231,13 +3237,13 @@
         <v>6788</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,13 +3258,13 @@
         <v>587515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>575</v>
@@ -3267,13 +3273,13 @@
         <v>559737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>1139</v>
@@ -3282,13 +3288,13 @@
         <v>1147252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3410,10 +3416,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>38</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3422,13 +3428,13 @@
         <v>9586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3437,13 +3443,13 @@
         <v>16129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,10 +3467,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>48</v>
       </c>
       <c r="H14" s="7">
         <v>655</v>
@@ -3473,13 +3479,13 @@
         <v>651800</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -3488,13 +3494,13 @@
         <v>1314354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3574,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3583,7 +3589,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3598,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,13 +3619,13 @@
         <v>6632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3628,13 +3634,13 @@
         <v>7789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3643,13 +3649,13 @@
         <v>14421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3664,13 +3670,13 @@
         <v>639416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3679,28 +3685,28 @@
         <v>641288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>1171</v>
       </c>
       <c r="N18" s="7">
-        <v>1280704</v>
+        <v>1280705</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3748,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -3756,7 +3762,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3789,7 +3795,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3819,13 +3825,13 @@
         <v>4644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3834,13 +3840,13 @@
         <v>14248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -3849,13 +3855,13 @@
         <v>18891</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>208</v>
+        <v>165</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3870,13 +3876,13 @@
         <v>473274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>154</v>
+        <v>216</v>
       </c>
       <c r="H22" s="7">
         <v>420</v>
@@ -3885,13 +3891,13 @@
         <v>482601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="M22" s="7">
         <v>841</v>
@@ -3900,13 +3906,13 @@
         <v>955876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>217</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,7 +3968,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3980,7 +3986,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4025,13 +4031,13 @@
         <v>2244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4040,13 +4046,13 @@
         <v>17278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4058,10 +4064,10 @@
         <v>223</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4076,10 +4082,10 @@
         <v>589084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4091,13 +4097,13 @@
         <v>760653</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M26" s="7">
         <v>1266</v>
@@ -4106,10 +4112,10 @@
         <v>1349737</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>232</v>
+        <v>47</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>233</v>
@@ -4186,7 +4192,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4201,7 +4207,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4216,7 +4222,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,10 +4240,10 @@
         <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>235</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4246,13 +4252,13 @@
         <v>55732</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>58</v>
+        <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4261,13 +4267,13 @@
         <v>81136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4282,13 +4288,13 @@
         <v>3368946</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4297,13 +4303,13 @@
         <v>3488810</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M30" s="7">
         <v>6496</v>
@@ -4315,10 +4321,10 @@
         <v>241</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,7 +4380,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4396,7 +4402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A960D7FE-9229-4C68-ABEB-D18AE9F30177}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DD5C0-8A14-4EDE-BDFF-22F519611D94}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4413,7 +4419,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4523,7 +4529,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>32</v>
@@ -4538,7 +4544,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>32</v>
@@ -4553,7 +4559,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4577,7 +4583,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4592,7 +4598,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4607,7 +4613,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,7 +4634,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4643,7 +4649,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4658,7 +4664,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>248</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4729,7 +4735,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -4759,7 +4765,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>32</v>
@@ -4783,7 +4789,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4798,7 +4804,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4813,7 +4819,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,7 +4840,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>191</v>
+        <v>250</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4849,7 +4855,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4864,7 +4870,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4935,7 +4941,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>252</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>32</v>
@@ -5141,7 +5147,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -5156,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>32</v>
@@ -5165,13 +5171,13 @@
         <v>1806</v>
       </c>
       <c r="N16" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>32</v>
@@ -5210,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5225,7 +5231,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5261,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5276,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,7 +5324,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -5332,7 +5338,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5347,7 +5353,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -5362,7 +5368,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>32</v>
@@ -5377,7 +5383,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>32</v>
@@ -5416,7 +5422,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5431,7 +5437,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5473,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5482,7 +5488,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,7 +5544,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5547,13 +5553,13 @@
         <v>1028</v>
       </c>
       <c r="D24" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>32</v>
@@ -5568,7 +5574,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -5583,7 +5589,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>32</v>
@@ -5607,7 +5613,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5622,7 +5628,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5637,7 +5643,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5664,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5673,7 +5679,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5688,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +5706,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>32</v>
@@ -5759,7 +5765,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>32</v>
@@ -5774,7 +5780,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>32</v>
@@ -5783,13 +5789,13 @@
         <v>8743</v>
       </c>
       <c r="N28" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>32</v>
@@ -5813,7 +5819,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5828,7 +5834,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5843,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5879,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5894,7 +5900,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5936,7 +5942,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>32</v>
@@ -5950,7 +5956,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{582AC612-66B6-41AD-907A-D22DD1AC666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{226F65AF-24B4-4764-B341-609587C0A794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8318CC8A-D8A0-4C65-9CF6-E3C2806E355B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8B3C414B-1A4A-4A77-BD3E-AD15668216F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="259">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>Si</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,9%</t>
@@ -100,13 +100,13 @@
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,03%</t>
+    <t>2,26%</t>
   </si>
   <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>1,22%</t>
+    <t>1,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,7 +115,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>98,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -124,7 +124,7 @@
     <t>99,1%</t>
   </si>
   <si>
-    <t>97,97%</t>
+    <t>97,74%</t>
   </si>
   <si>
     <t>99,77%</t>
@@ -133,7 +133,7 @@
     <t>99,45%</t>
   </si>
   <si>
-    <t>98,78%</t>
+    <t>98,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -157,649 +157,625 @@
     <t>0,4%</t>
   </si>
   <si>
-    <t>2,25%</t>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,65%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
   </si>
   <si>
     <t>1,12%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>98,88%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
+    <t>99,51%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
   <si>
     <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de colitis en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
   </si>
   <si>
     <t>99,89%</t>
@@ -1250,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81D6FB0-8CAA-48D9-AF39-CDCDB3EAAEA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCEAD3A-C31B-4959-8AC4-AC0194AB5FCE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1843,7 +1819,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1852,13 +1828,13 @@
         <v>4530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1870,7 +1846,7 @@
         <v>38</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>59</v>
@@ -1891,7 +1867,7 @@
         <v>60</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>26</v>
@@ -1903,10 +1879,10 @@
         <v>705044</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>63</v>
@@ -2046,10 +2022,10 @@
         <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -2109,13 +2085,13 @@
         <v>601594</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M18" s="7">
         <v>1070</v>
@@ -2124,13 +2100,13 @@
         <v>1210895</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,7 +2162,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2204,7 +2180,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2219,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2234,7 +2210,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2225,13 @@
         <v>4292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" s="7">
         <v>10</v>
@@ -2264,13 +2240,13 @@
         <v>11030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M21" s="7">
         <v>14</v>
@@ -2279,10 +2255,10 @@
         <v>15322</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>97</v>
@@ -2336,7 +2312,7 @@
         <v>105</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,7 +2368,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2410,37 +2386,37 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,13 +2431,13 @@
         <v>10431</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -2470,13 +2446,13 @@
         <v>21407</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M25" s="7">
         <v>27</v>
@@ -2485,13 +2461,13 @@
         <v>31838</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,13 +2482,13 @@
         <v>549206</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>674</v>
@@ -2521,13 +2497,13 @@
         <v>720385</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M26" s="7">
         <v>1170</v>
@@ -2536,13 +2512,13 @@
         <v>1269591</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2631,7 +2607,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2646,7 +2622,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,13 +2637,13 @@
         <v>28765</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -2676,13 +2652,13 @@
         <v>62730</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>81</v>
@@ -2691,13 +2667,13 @@
         <v>91495</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>136</v>
+        <v>72</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,13 +2688,13 @@
         <v>3398014</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>139</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3239</v>
@@ -2727,13 +2703,13 @@
         <v>3491186</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="M30" s="7">
         <v>6423</v>
@@ -2742,13 +2718,13 @@
         <v>6889199</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>144</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,7 +2780,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2826,7 +2802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08EDABF-C902-45C8-9C0B-CAC5C5523037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A983571-9CF2-4594-95B2-51CFF6A2F62C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2819,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2956,7 +2932,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2971,7 +2947,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2986,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2977,13 @@
         <v>2359</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -3016,13 +2992,13 @@
         <v>3026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -3031,13 +3007,13 @@
         <v>5385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,10 +3028,10 @@
         <v>417104</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>26</v>
@@ -3067,13 +3043,13 @@
         <v>392729</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -3082,13 +3058,13 @@
         <v>809833</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>157</v>
+        <v>51</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3177,7 +3153,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3192,7 +3168,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3207,13 +3183,13 @@
         <v>2981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -3222,13 +3198,13 @@
         <v>3807</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -3237,13 +3213,13 @@
         <v>6788</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3234,13 @@
         <v>587515</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="H10" s="7">
         <v>575</v>
@@ -3273,13 +3249,13 @@
         <v>559737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>1139</v>
@@ -3288,10 +3264,10 @@
         <v>1147252</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>100</v>
@@ -3368,7 +3344,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3416,10 +3392,10 @@
         <v>37</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3428,13 +3404,13 @@
         <v>9586</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -3443,13 +3419,13 @@
         <v>16129</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>22</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3467,10 +3443,10 @@
         <v>46</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>655</v>
@@ -3479,13 +3455,13 @@
         <v>651800</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M14" s="7">
         <v>1287</v>
@@ -3494,10 +3470,10 @@
         <v>1314354</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>184</v>
@@ -3574,7 +3550,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3589,7 +3565,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3604,7 +3580,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3619,13 +3595,13 @@
         <v>6632</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>189</v>
+        <v>88</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -3634,13 +3610,13 @@
         <v>7789</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -3649,13 +3625,13 @@
         <v>14421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,13 +3646,13 @@
         <v>639416</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H18" s="7">
         <v>595</v>
@@ -3685,28 +3661,28 @@
         <v>641288</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="M18" s="7">
         <v>1171</v>
       </c>
       <c r="N18" s="7">
-        <v>1280705</v>
+        <v>1280704</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3724,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>32</v>
@@ -3762,7 +3738,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3795,7 +3771,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -3825,13 +3801,13 @@
         <v>4644</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H21" s="7">
         <v>13</v>
@@ -3840,13 +3816,13 @@
         <v>14248</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -3855,13 +3831,13 @@
         <v>18891</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,13 +3852,13 @@
         <v>473274</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H22" s="7">
         <v>420</v>
@@ -3891,13 +3867,13 @@
         <v>482601</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M22" s="7">
         <v>841</v>
@@ -3906,13 +3882,13 @@
         <v>955876</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,7 +3944,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3986,7 +3962,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -4031,13 +4007,13 @@
         <v>2244</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4046,13 +4022,13 @@
         <v>17278</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>16</v>
@@ -4061,13 +4037,13 @@
         <v>19522</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>223</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,10 +4058,10 @@
         <v>589084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>26</v>
@@ -4097,13 +4073,13 @@
         <v>760653</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>231</v>
+        <v>119</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="M26" s="7">
         <v>1266</v>
@@ -4112,13 +4088,13 @@
         <v>1349737</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>47</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,7 +4168,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4207,7 +4183,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4222,7 +4198,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4213,13 @@
         <v>25404</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H29" s="7">
         <v>51</v>
@@ -4252,13 +4228,13 @@
         <v>55732</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>161</v>
+        <v>228</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="M29" s="7">
         <v>73</v>
@@ -4267,13 +4243,13 @@
         <v>81136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,13 +4264,13 @@
         <v>3368946</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H30" s="7">
         <v>3287</v>
@@ -4303,13 +4279,13 @@
         <v>3488810</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>167</v>
+        <v>234</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>244</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>6496</v>
@@ -4318,13 +4294,13 @@
         <v>6857756</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>246</v>
+        <v>85</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4380,7 +4356,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -4402,7 +4378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03DD5C0-8A14-4EDE-BDFF-22F519611D94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A57352C9-A176-4057-BDCF-8AAAEE85A68E}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4419,7 +4395,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4529,7 +4505,7 @@
         <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>32</v>
@@ -4544,7 +4520,7 @@
         <v>26</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>32</v>
@@ -4559,7 +4535,7 @@
         <v>26</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>32</v>
@@ -4583,7 +4559,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4598,7 +4574,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4613,7 +4589,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,7 +4610,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4649,7 +4625,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -4664,7 +4640,7 @@
         <v>12</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4735,7 +4711,7 @@
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -4750,7 +4726,7 @@
         <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>249</v>
+        <v>179</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>32</v>
@@ -4765,7 +4741,7 @@
         <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>32</v>
@@ -4789,7 +4765,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4804,7 +4780,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -4819,7 +4795,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4816,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4855,7 +4831,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -4870,7 +4846,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4917,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>32</v>
@@ -5025,7 +5001,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,7 +5052,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,7 +5123,7 @@
         <v>26</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>32</v>
@@ -5162,7 +5138,7 @@
         <v>26</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>171</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>32</v>
@@ -5177,7 +5153,7 @@
         <v>26</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>32</v>
@@ -5216,7 +5192,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -5231,7 +5207,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,7 +5243,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -5282,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,7 +5314,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5353,7 +5329,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -5368,7 +5344,7 @@
         <v>26</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>32</v>
@@ -5383,7 +5359,7 @@
         <v>26</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>32</v>
@@ -5422,7 +5398,7 @@
         <v>12</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -5437,7 +5413,7 @@
         <v>12</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5473,7 +5449,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5488,7 +5464,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5544,7 +5520,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5559,7 +5535,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>32</v>
@@ -5574,7 +5550,7 @@
         <v>26</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>32</v>
@@ -5589,7 +5565,7 @@
         <v>26</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>32</v>
@@ -5613,7 +5589,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5628,7 +5604,7 @@
         <v>12</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -5643,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5640,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5679,7 +5655,7 @@
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -5694,7 +5670,7 @@
         <v>12</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,7 +5741,7 @@
         <v>26</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>32</v>
@@ -5780,7 +5756,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>32</v>
@@ -5795,7 +5771,7 @@
         <v>26</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>32</v>
@@ -5819,7 +5795,7 @@
         <v>12</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5834,7 +5810,7 @@
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -5849,7 +5825,7 @@
         <v>12</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,7 +5846,7 @@
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5885,7 +5861,7 @@
         <v>12</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M30" s="7">
         <v>0</v>
@@ -5900,7 +5876,7 @@
         <v>12</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,7 +5932,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1405-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1405-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AA5582-DFF1-4739-892F-03BF07FC3B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3882BF9-0B67-44AE-B83C-D2E6D8924E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51D9236B-1AA3-4AA2-91BD-DA0404129DBD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C546315B-69E9-4CBE-967A-2E185313FB65}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="242">
   <si>
     <t>Población con diagnóstico de colitis en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -126,7 +126,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,98%</t>
@@ -183,7 +183,7 @@
     <t>99,27%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,15%</t>
@@ -216,7 +216,7 @@
     <t>99,13%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,86%</t>
@@ -267,7 +267,7 @@
     <t>97,6%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -324,55 +324,100 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>2,45%</t>
   </si>
   <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>97,55%</t>
   </si>
   <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
   </si>
   <si>
     <t>0,84%</t>
@@ -387,9 +432,6 @@
     <t>2,29%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
@@ -408,9 +450,6 @@
     <t>98,66%</t>
   </si>
   <si>
-    <t>98,69%</t>
-  </si>
-  <si>
     <t>98,37%</t>
   </si>
   <si>
@@ -549,9 +588,6 @@
     <t>0,48%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
     <t>1,2%</t>
   </si>
   <si>
@@ -570,9 +606,6 @@
     <t>98,97%</t>
   </si>
   <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>99,52%</t>
   </si>
   <si>
@@ -639,52 +672,67 @@
     <t>98,87%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>0,75%</t>
@@ -1126,8 +1174,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8F3484C-7380-429E-853F-4E8CAD3CAFDD}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6036057-B5A8-441D-A749-0BF9A6DB367F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2019,28 +2067,28 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>10431</v>
+        <v>5104</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4620</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="H19" s="7">
-        <v>19</v>
-      </c>
-      <c r="I19" s="7">
-        <v>21407</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>99</v>
@@ -2049,19 +2097,19 @@
         <v>100</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="N19" s="7">
-        <v>31838</v>
+        <v>9723</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,49 +2118,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>496</v>
+        <v>278</v>
       </c>
       <c r="D20" s="7">
-        <v>549206</v>
+        <v>304682</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="7">
+        <v>340</v>
+      </c>
+      <c r="I20" s="7">
+        <v>349376</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H20" s="7">
-        <v>674</v>
-      </c>
-      <c r="I20" s="7">
-        <v>720385</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>618</v>
+      </c>
+      <c r="N20" s="7">
+        <v>654059</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="M20" s="7">
-        <v>1170</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1269591</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2121,10 +2169,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -2136,10 +2184,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -2151,10 +2199,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -2168,52 +2216,52 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D22" s="7">
-        <v>28765</v>
+        <v>5328</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>62730</v>
+        <v>16787</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="N22" s="7">
-        <v>91495</v>
+        <v>22115</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>118</v>
@@ -2225,49 +2273,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3184</v>
+        <v>218</v>
       </c>
       <c r="D23" s="7">
-        <v>3398014</v>
+        <v>244523</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
-        <v>3239</v>
+        <v>334</v>
       </c>
       <c r="I23" s="7">
-        <v>3491186</v>
+        <v>371009</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
-        <v>6423</v>
+        <v>552</v>
       </c>
       <c r="N23" s="7">
-        <v>6889199</v>
+        <v>615532</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,63 +2324,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7">
+        <v>28765</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="7">
+        <v>56</v>
+      </c>
+      <c r="I25" s="7">
+        <v>62730</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="M25" s="7">
+        <v>81</v>
+      </c>
+      <c r="N25" s="7">
+        <v>91495</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3184</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3398014</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3239</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3491186</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6423</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6889199</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>126</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2345,8 +2549,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0986991-AB1B-4693-B7D1-3AF546434DFC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF27145E-F649-451F-B4C5-28D4E95751C5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2362,7 +2566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2469,13 +2673,13 @@
         <v>2359</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2484,13 +2688,13 @@
         <v>3026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2499,10 +2703,10 @@
         <v>5385</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>52</v>
@@ -2520,10 +2724,10 @@
         <v>417104</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>22</v>
@@ -2535,10 +2739,10 @@
         <v>392729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>88</v>
@@ -2550,13 +2754,13 @@
         <v>809833</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>56</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2828,13 @@
         <v>2981</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -2639,13 +2843,13 @@
         <v>3807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2654,7 +2858,7 @@
         <v>6788</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>78</v>
@@ -2675,13 +2879,13 @@
         <v>587515</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H8" s="7">
         <v>575</v>
@@ -2690,13 +2894,13 @@
         <v>559737</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>1139</v>
@@ -2705,7 +2909,7 @@
         <v>1147252</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
@@ -2782,10 +2986,10 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -2794,13 +2998,13 @@
         <v>9586</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -2809,13 +3013,13 @@
         <v>16129</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,10 +3037,10 @@
         <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="H11" s="7">
         <v>655</v>
@@ -2845,13 +3049,13 @@
         <v>651800</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="M11" s="7">
         <v>1287</v>
@@ -2860,13 +3064,13 @@
         <v>1314354</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +3138,13 @@
         <v>6632</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -2949,13 +3153,13 @@
         <v>7789</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -2964,13 +3168,13 @@
         <v>14421</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2985,13 +3189,13 @@
         <v>639416</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H14" s="7">
         <v>595</v>
@@ -3000,13 +3204,13 @@
         <v>641288</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>1171</v>
@@ -3015,13 +3219,13 @@
         <v>1280704</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3293,13 @@
         <v>4644</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -3104,13 +3308,13 @@
         <v>14248</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>16</v>
@@ -3119,13 +3323,13 @@
         <v>18891</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3344,13 @@
         <v>473274</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>420</v>
@@ -3155,13 +3359,13 @@
         <v>482601</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
         <v>841</v>
@@ -3170,13 +3374,13 @@
         <v>955876</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,49 +3442,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>2244</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="H19" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>17278</v>
+        <v>4011</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="M19" s="7">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="N19" s="7">
-        <v>19522</v>
+        <v>4011</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>205</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,49 +3493,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>625</v>
+        <v>325</v>
       </c>
       <c r="D20" s="7">
-        <v>589084</v>
+        <v>334330</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7">
-        <v>641</v>
+        <v>350</v>
       </c>
       <c r="I20" s="7">
-        <v>760653</v>
+        <v>373751</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
-        <v>1266</v>
+        <v>675</v>
       </c>
       <c r="N20" s="7">
-        <v>1349737</v>
+        <v>708081</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,10 +3544,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -3355,10 +3559,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -3370,10 +3574,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -3387,55 +3591,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>110</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>25404</v>
+        <v>2244</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>53</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>169</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>55732</v>
+        <v>13267</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>52</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="N22" s="7">
-        <v>81136</v>
+        <v>15511</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>219</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,49 +3648,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3209</v>
+        <v>300</v>
       </c>
       <c r="D23" s="7">
-        <v>3368946</v>
+        <v>254754</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>58</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>178</v>
+        <v>22</v>
       </c>
       <c r="H23" s="7">
-        <v>3287</v>
+        <v>291</v>
       </c>
       <c r="I23" s="7">
-        <v>3488810</v>
+        <v>386902</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>21</v>
+        <v>229</v>
       </c>
       <c r="M23" s="7">
-        <v>6496</v>
+        <v>591</v>
       </c>
       <c r="N23" s="7">
-        <v>6857756</v>
+        <v>641656</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>225</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,63 +3699,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>22</v>
+      </c>
+      <c r="D25" s="7">
+        <v>25404</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="7">
+        <v>51</v>
+      </c>
+      <c r="I25" s="7">
+        <v>55732</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="M25" s="7">
+        <v>73</v>
+      </c>
+      <c r="N25" s="7">
+        <v>81136</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3209</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3368946</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3287</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3488810</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6496</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6857756</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>126</v>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
